--- a/data/fakecsv/dept_TSLA.xlsx
+++ b/data/fakecsv/dept_TSLA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="107">
   <si>
     <t>Department</t>
   </si>
@@ -25,7 +25,7 @@
     <t>User ID</t>
   </si>
   <si>
-    <t>Fullname</t>
+    <t>Name</t>
   </si>
   <si>
     <t>System1</t>
@@ -40,274 +40,274 @@
     <t>TSLA</t>
   </si>
   <si>
-    <t>FJ2Z3NK5XE3AMP7HB</t>
-  </si>
-  <si>
-    <t>0T5019K13E6M4ASLB</t>
-  </si>
-  <si>
-    <t>0SB3ZBNF61CNC61N2</t>
-  </si>
-  <si>
-    <t>20SDN81Z5J1CHR51U</t>
-  </si>
-  <si>
-    <t>UA39CX66X50W1JU18</t>
-  </si>
-  <si>
-    <t>GGD2P6AR9L2F27T6E</t>
-  </si>
-  <si>
-    <t>2935SV7N7HXF2327W</t>
-  </si>
-  <si>
-    <t>4KNXF1HB1R356F3Z0</t>
-  </si>
-  <si>
-    <t>5HTVE18W5P4C0T6LN</t>
-  </si>
-  <si>
-    <t>3GFCUR0F92TSCKKJL</t>
-  </si>
-  <si>
-    <t>XF1Z79JT0LF7H8HAF</t>
-  </si>
-  <si>
-    <t>6RPSLDUM9MT9A6UJX</t>
-  </si>
-  <si>
-    <t>LGG1YFU99C0MX8P4S</t>
-  </si>
-  <si>
-    <t>AW4GD8Z98D157NMAS</t>
-  </si>
-  <si>
-    <t>FPH1N08861JPJTJCG</t>
-  </si>
-  <si>
-    <t>MAVJJ5MM2HCYT0BU6</t>
-  </si>
-  <si>
-    <t>Y75ANE2X9GZ67NDP5</t>
-  </si>
-  <si>
-    <t>3UUAYWDE0TWZFKH63</t>
-  </si>
-  <si>
-    <t>AA910TBD8GV7SGN5E</t>
-  </si>
-  <si>
-    <t>65XT5Z929G48LZFNK</t>
-  </si>
-  <si>
-    <t>0ZN91U2C4R0WW65NE</t>
-  </si>
-  <si>
-    <t>3ZP4UPD70MMV0W94L</t>
-  </si>
-  <si>
-    <t>JVBUYLFD0NABS1L3J</t>
-  </si>
-  <si>
-    <t>CRYTX3H361CLG18NE</t>
-  </si>
-  <si>
-    <t>YMMBAM085MA7JYJFR</t>
-  </si>
-  <si>
-    <t>7PC06Z4EXMZNU6SSR</t>
-  </si>
-  <si>
-    <t>KALG12N57TSP8YPG3</t>
-  </si>
-  <si>
-    <t>8MNC46U42XRK3NXC8</t>
-  </si>
-  <si>
-    <t>AM1YSY1B05SFNHM73</t>
-  </si>
-  <si>
-    <t>D5NR78A5X6EV6FF9J</t>
-  </si>
-  <si>
-    <t>SCCJ2Z1G8PPTMK9GC</t>
-  </si>
-  <si>
-    <t>92VVKX4V5KU8EF2R8</t>
-  </si>
-  <si>
-    <t>NE0TMPCM6BRLFT6FX</t>
-  </si>
-  <si>
-    <t>HYF7J63735KM6N87T</t>
-  </si>
-  <si>
-    <t>XSW2EVK74JDPPSC6X</t>
-  </si>
-  <si>
-    <t>4AU1KUS49KAG5E1D3</t>
-  </si>
-  <si>
-    <t>AW5JFV3D062NTGHEE</t>
-  </si>
-  <si>
-    <t>Y5617VBY3LPYSFNW6</t>
-  </si>
-  <si>
-    <t>KMTVL52193CHJZSNU</t>
-  </si>
-  <si>
-    <t>53NALD7Z4U6UULXJ8</t>
-  </si>
-  <si>
-    <t>5LLNBGBE3NA7FFL9H</t>
-  </si>
-  <si>
-    <t>2ZLGC4ZS7ECWVRTJM</t>
-  </si>
-  <si>
-    <t>W333KAW13P3EMKAYX</t>
-  </si>
-  <si>
-    <t>YUBP6RS03E45Z2CPR</t>
-  </si>
-  <si>
-    <t>305TSFS84CBCLMSN4</t>
-  </si>
-  <si>
-    <t>Kelly Murray</t>
-  </si>
-  <si>
-    <t>Rodney Stone</t>
-  </si>
-  <si>
-    <t>Bruce Smith</t>
-  </si>
-  <si>
-    <t>Daniel Thornton</t>
-  </si>
-  <si>
-    <t>Marvin Porter</t>
-  </si>
-  <si>
-    <t>Christine Welch</t>
-  </si>
-  <si>
-    <t>Michael Perry</t>
-  </si>
-  <si>
-    <t>Marcus Parks</t>
-  </si>
-  <si>
-    <t>Christina Gross</t>
-  </si>
-  <si>
-    <t>Jennifer Johnson</t>
-  </si>
-  <si>
-    <t>Evelyn Cortez</t>
-  </si>
-  <si>
-    <t>Timothy Barry</t>
-  </si>
-  <si>
-    <t>Ryan Silva</t>
-  </si>
-  <si>
-    <t>Brendan Wood</t>
-  </si>
-  <si>
-    <t>Kenneth Zimmerman</t>
-  </si>
-  <si>
-    <t>Sandra Smith</t>
-  </si>
-  <si>
-    <t>Ronald Monroe</t>
-  </si>
-  <si>
-    <t>Christian Rojas</t>
-  </si>
-  <si>
-    <t>Tracy Lee</t>
-  </si>
-  <si>
-    <t>Charles Christensen</t>
-  </si>
-  <si>
-    <t>Robert Fletcher</t>
-  </si>
-  <si>
-    <t>Debra Mccoy</t>
-  </si>
-  <si>
-    <t>Sarah Rojas</t>
-  </si>
-  <si>
-    <t>Amber Benjamin</t>
-  </si>
-  <si>
-    <t>Steven Levy</t>
-  </si>
-  <si>
-    <t>Tony Fleming</t>
-  </si>
-  <si>
-    <t>Cheryl Clark</t>
-  </si>
-  <si>
-    <t>James Trevino</t>
-  </si>
-  <si>
-    <t>Ms. Susan Hill</t>
-  </si>
-  <si>
-    <t>Joshua Carter</t>
-  </si>
-  <si>
-    <t>Steven Little</t>
-  </si>
-  <si>
-    <t>Matthew Blackburn</t>
-  </si>
-  <si>
-    <t>Lori Jones</t>
-  </si>
-  <si>
-    <t>Pedro Sellers</t>
-  </si>
-  <si>
-    <t>Joy Smith</t>
-  </si>
-  <si>
-    <t>Stephanie Williams</t>
-  </si>
-  <si>
-    <t>Christopher Pacheco</t>
-  </si>
-  <si>
-    <t>Kyle Cook</t>
-  </si>
-  <si>
-    <t>Maria Torres</t>
-  </si>
-  <si>
-    <t>Matthew Bernard</t>
-  </si>
-  <si>
-    <t>Henry Pennington</t>
-  </si>
-  <si>
-    <t>Michael Zimmerman</t>
-  </si>
-  <si>
-    <t>David Diaz</t>
-  </si>
-  <si>
-    <t>Tonya Holmes</t>
-  </si>
-  <si>
-    <t>Annette Barnes</t>
+    <t>8RGBUYJWXNLN89K5B</t>
+  </si>
+  <si>
+    <t>5V9Z0XG46CNE6JHWB</t>
+  </si>
+  <si>
+    <t>T7UGR6EE5MES5SL29</t>
+  </si>
+  <si>
+    <t>T4PLNHVZ66LLU1Y5Z</t>
+  </si>
+  <si>
+    <t>6D0FHW4R2X2NDD9LR</t>
+  </si>
+  <si>
+    <t>1RPRD9DW1T71FRFN3</t>
+  </si>
+  <si>
+    <t>VURU0RU71F8XGL11R</t>
+  </si>
+  <si>
+    <t>ZP5EB72G56WZJ1LN9</t>
+  </si>
+  <si>
+    <t>FDGUDW736E8U1PMB4</t>
+  </si>
+  <si>
+    <t>WKNSMZUMXJGCAAK7V</t>
+  </si>
+  <si>
+    <t>UVRAAH0T5PU2NWBEG</t>
+  </si>
+  <si>
+    <t>8K34FCC67YCHNAVSD</t>
+  </si>
+  <si>
+    <t>09T9LZ665SXGTA2J9</t>
+  </si>
+  <si>
+    <t>RKVUPV2B0GY0ELCUD</t>
+  </si>
+  <si>
+    <t>67VTEV814GA78NU2B</t>
+  </si>
+  <si>
+    <t>6GVBMCRP51NJHNCFX</t>
+  </si>
+  <si>
+    <t>XHELKCJM1MM6GTJLW</t>
+  </si>
+  <si>
+    <t>1GMGJ8R35UE0R97PR</t>
+  </si>
+  <si>
+    <t>R26FJ2ML1Z2NHA7X9</t>
+  </si>
+  <si>
+    <t>PV8NHF81XXB4YS1N2</t>
+  </si>
+  <si>
+    <t>1GV7UJMA7MB2848E4</t>
+  </si>
+  <si>
+    <t>JAKPPJPC14ZZNY2FS</t>
+  </si>
+  <si>
+    <t>P68GCK48XN0ED9DXE</t>
+  </si>
+  <si>
+    <t>W8LPBJGK6D72P5W2U</t>
+  </si>
+  <si>
+    <t>G479823176BNYHZZE</t>
+  </si>
+  <si>
+    <t>40FVRVK16DATPCKDP</t>
+  </si>
+  <si>
+    <t>BFBGZW8F5ZY3YN01F</t>
+  </si>
+  <si>
+    <t>V3B93T0HX52T2E0R4</t>
+  </si>
+  <si>
+    <t>HWBBRVRP43SU4VV3T</t>
+  </si>
+  <si>
+    <t>C9R8BVBR0WTF4FE7S</t>
+  </si>
+  <si>
+    <t>8HZ9FJVM3NMEC1Y6T</t>
+  </si>
+  <si>
+    <t>75F7WUBS912JGEP5M</t>
+  </si>
+  <si>
+    <t>5HJFSVTE6BT826BR8</t>
+  </si>
+  <si>
+    <t>WADADHN343AGU75SW</t>
+  </si>
+  <si>
+    <t>GEDYH6JEXZ8U5GUX3</t>
+  </si>
+  <si>
+    <t>9E40LD0N4N33T4E5V</t>
+  </si>
+  <si>
+    <t>JP37RHPU8A9ALSY67</t>
+  </si>
+  <si>
+    <t>4726CEF12NY0K2U4W</t>
+  </si>
+  <si>
+    <t>WTALUMFX3TT8RGGDR</t>
+  </si>
+  <si>
+    <t>62TKZF666VXBPXP8M</t>
+  </si>
+  <si>
+    <t>MARUCETYX3EYMWUPN</t>
+  </si>
+  <si>
+    <t>MLZ1CBLC1CKENHP7W</t>
+  </si>
+  <si>
+    <t>4UW5EPPF7ZP50FNWS</t>
+  </si>
+  <si>
+    <t>N7DZHMV66JLL5S87Y</t>
+  </si>
+  <si>
+    <t>TFCL8G9522ARXGMEG</t>
+  </si>
+  <si>
+    <t>Jeremy Mcgee</t>
+  </si>
+  <si>
+    <t>Alexis Zimmerman</t>
+  </si>
+  <si>
+    <t>Paula Wyatt</t>
+  </si>
+  <si>
+    <t>Thomas Sanford</t>
+  </si>
+  <si>
+    <t>Ricky Ellis</t>
+  </si>
+  <si>
+    <t>Ryan Marshall</t>
+  </si>
+  <si>
+    <t>Eric Thomas</t>
+  </si>
+  <si>
+    <t>Samantha Cook</t>
+  </si>
+  <si>
+    <t>Kevin Waters</t>
+  </si>
+  <si>
+    <t>Kenneth Walker</t>
+  </si>
+  <si>
+    <t>Marc Conner</t>
+  </si>
+  <si>
+    <t>Margaret Morris</t>
+  </si>
+  <si>
+    <t>Michael Young</t>
+  </si>
+  <si>
+    <t>Nicole Velez</t>
+  </si>
+  <si>
+    <t>John Meza</t>
+  </si>
+  <si>
+    <t>Toni Shah</t>
+  </si>
+  <si>
+    <t>Sandra Brown</t>
+  </si>
+  <si>
+    <t>Victoria Macdonald</t>
+  </si>
+  <si>
+    <t>Luis Johnson</t>
+  </si>
+  <si>
+    <t>Barry Webb</t>
+  </si>
+  <si>
+    <t>Mr. Christopher Taylor</t>
+  </si>
+  <si>
+    <t>Christian Wagner</t>
+  </si>
+  <si>
+    <t>Kristen Harris</t>
+  </si>
+  <si>
+    <t>Mrs. Lisa Walker</t>
+  </si>
+  <si>
+    <t>Timothy Rice</t>
+  </si>
+  <si>
+    <t>James Bailey</t>
+  </si>
+  <si>
+    <t>Elaine Torres</t>
+  </si>
+  <si>
+    <t>Madison Turner</t>
+  </si>
+  <si>
+    <t>Julia Carrillo</t>
+  </si>
+  <si>
+    <t>Erin Allen</t>
+  </si>
+  <si>
+    <t>George Miller</t>
+  </si>
+  <si>
+    <t>Robert Smith</t>
+  </si>
+  <si>
+    <t>Troy Barry</t>
+  </si>
+  <si>
+    <t>Bobby Cooper</t>
+  </si>
+  <si>
+    <t>Justin Patterson</t>
+  </si>
+  <si>
+    <t>Mitchell Carpenter</t>
+  </si>
+  <si>
+    <t>Samuel Martinez</t>
+  </si>
+  <si>
+    <t>Martin Edwards</t>
+  </si>
+  <si>
+    <t>Regina Hubbard</t>
+  </si>
+  <si>
+    <t>Brett Rocha</t>
+  </si>
+  <si>
+    <t>Mitchell Cruz</t>
+  </si>
+  <si>
+    <t>Peter Lopez</t>
+  </si>
+  <si>
+    <t>Shawn Tucker</t>
+  </si>
+  <si>
+    <t>Kimberly Cooley</t>
+  </si>
+  <si>
+    <t>Raymond Martin</t>
   </si>
   <si>
     <t>KLSE</t>
@@ -692,7 +692,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F210"/>
+  <dimension ref="A1:F241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -743,13 +743,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -760,13 +760,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -777,13 +777,13 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -794,13 +794,13 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -811,13 +811,13 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -828,13 +828,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -845,13 +845,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -862,13 +862,13 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -879,13 +879,13 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -896,13 +896,13 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -913,13 +913,13 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -930,13 +930,13 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -947,13 +947,13 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -964,13 +964,13 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -981,13 +981,13 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -998,13 +998,13 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1015,13 +1015,13 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1032,13 +1032,13 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1049,13 +1049,13 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1066,13 +1066,13 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1083,13 +1083,13 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1100,13 +1100,13 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1117,13 +1117,13 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1134,10 +1134,10 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
         <v>98</v>
@@ -1151,10 +1151,10 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E27" t="s">
         <v>99</v>
@@ -1168,10 +1168,10 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E28" t="s">
         <v>100</v>
@@ -1185,10 +1185,10 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E29" t="s">
         <v>101</v>
@@ -1202,10 +1202,10 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E30" t="s">
         <v>102</v>
@@ -1219,10 +1219,10 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E31" t="s">
         <v>103</v>
@@ -1236,13 +1236,13 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E32" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1253,13 +1253,13 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E33" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1270,13 +1270,13 @@
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E34" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1287,13 +1287,13 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E35" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1304,13 +1304,13 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E36" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1321,13 +1321,13 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E37" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1338,13 +1338,13 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E38" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1355,13 +1355,13 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E39" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1372,13 +1372,13 @@
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E40" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1389,13 +1389,13 @@
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E41" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1406,13 +1406,13 @@
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E42" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1423,13 +1423,13 @@
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E43" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1440,13 +1440,13 @@
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E44" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1457,13 +1457,13 @@
         <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E45" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1474,13 +1474,13 @@
         <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E46" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1491,13 +1491,13 @@
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E47" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1508,10 +1508,10 @@
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E48" t="s">
         <v>98</v>
@@ -1525,10 +1525,10 @@
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E49" t="s">
         <v>99</v>
@@ -1542,10 +1542,10 @@
         <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E50" t="s">
         <v>100</v>
@@ -1559,10 +1559,10 @@
         <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E51" t="s">
         <v>101</v>
@@ -1576,10 +1576,10 @@
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E52" t="s">
         <v>102</v>
@@ -1593,10 +1593,10 @@
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E53" t="s">
         <v>103</v>
@@ -1610,13 +1610,13 @@
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D54" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E54" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1627,10 +1627,10 @@
         <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E55" t="s">
         <v>98</v>
@@ -1644,10 +1644,10 @@
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E56" t="s">
         <v>99</v>
@@ -1661,10 +1661,10 @@
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D57" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E57" t="s">
         <v>100</v>
@@ -1678,10 +1678,10 @@
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D58" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E58" t="s">
         <v>101</v>
@@ -1695,13 +1695,13 @@
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D59" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E59" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1712,13 +1712,13 @@
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D60" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E60" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1729,13 +1729,13 @@
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D61" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E61" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1746,13 +1746,13 @@
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D62" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E62" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1763,13 +1763,13 @@
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D63" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1780,13 +1780,13 @@
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D64" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E64" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1797,13 +1797,13 @@
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D65" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E65" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1814,13 +1814,13 @@
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D66" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E66" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1831,13 +1831,13 @@
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D67" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E67" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1848,13 +1848,13 @@
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D68" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E68" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1865,13 +1865,13 @@
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D69" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E69" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1882,13 +1882,13 @@
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D70" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E70" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1899,13 +1899,13 @@
         <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D71" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E71" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1916,13 +1916,13 @@
         <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D72" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E72" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1933,13 +1933,13 @@
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D73" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E73" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1950,13 +1950,13 @@
         <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D74" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E74" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1967,13 +1967,13 @@
         <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D75" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E75" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1984,13 +1984,13 @@
         <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D76" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E76" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2001,13 +2001,13 @@
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D77" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E77" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2018,13 +2018,13 @@
         <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D78" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E78" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2035,13 +2035,13 @@
         <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D79" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E79" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2052,13 +2052,13 @@
         <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D80" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E80" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2069,13 +2069,13 @@
         <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D81" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E81" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2086,13 +2086,13 @@
         <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D82" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E82" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2103,13 +2103,13 @@
         <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D83" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E83" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2120,13 +2120,13 @@
         <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D84" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E84" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2137,13 +2137,13 @@
         <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D85" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E85" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2154,13 +2154,13 @@
         <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D86" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E86" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2171,13 +2171,13 @@
         <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D87" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E87" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2194,7 +2194,7 @@
         <v>69</v>
       </c>
       <c r="E88" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2211,7 +2211,7 @@
         <v>69</v>
       </c>
       <c r="E89" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2228,7 +2228,7 @@
         <v>69</v>
       </c>
       <c r="E90" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2239,13 +2239,13 @@
         <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D91" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E91" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2256,13 +2256,13 @@
         <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D92" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E92" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2279,7 +2279,7 @@
         <v>70</v>
       </c>
       <c r="E93" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2296,7 +2296,7 @@
         <v>70</v>
       </c>
       <c r="E94" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2313,7 +2313,7 @@
         <v>70</v>
       </c>
       <c r="E95" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2330,7 +2330,7 @@
         <v>70</v>
       </c>
       <c r="E96" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2341,13 +2341,13 @@
         <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D97" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E97" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2358,13 +2358,13 @@
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D98" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E98" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2381,7 +2381,7 @@
         <v>71</v>
       </c>
       <c r="E99" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2398,7 +2398,7 @@
         <v>71</v>
       </c>
       <c r="E100" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2409,13 +2409,13 @@
         <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D101" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E101" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2432,7 +2432,7 @@
         <v>72</v>
       </c>
       <c r="E102" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2443,13 +2443,13 @@
         <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D103" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E103" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2460,13 +2460,13 @@
         <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D104" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E104" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2477,13 +2477,13 @@
         <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D105" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E105" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2500,7 +2500,7 @@
         <v>73</v>
       </c>
       <c r="E106" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2517,7 +2517,7 @@
         <v>73</v>
       </c>
       <c r="E107" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2534,7 +2534,7 @@
         <v>73</v>
       </c>
       <c r="E108" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2551,7 +2551,7 @@
         <v>73</v>
       </c>
       <c r="E109" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2562,13 +2562,13 @@
         <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D110" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E110" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2579,13 +2579,13 @@
         <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D111" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E111" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2602,7 +2602,7 @@
         <v>74</v>
       </c>
       <c r="E112" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2613,13 +2613,13 @@
         <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D113" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E113" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2630,13 +2630,13 @@
         <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D114" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E114" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2647,13 +2647,13 @@
         <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D115" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E115" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2664,10 +2664,10 @@
         <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D116" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E116" t="s">
         <v>98</v>
@@ -2681,10 +2681,10 @@
         <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D117" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E117" t="s">
         <v>99</v>
@@ -2698,10 +2698,10 @@
         <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D118" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E118" t="s">
         <v>100</v>
@@ -2715,10 +2715,10 @@
         <v>7</v>
       </c>
       <c r="C119" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D119" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E119" t="s">
         <v>101</v>
@@ -2732,10 +2732,10 @@
         <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D120" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E120" t="s">
         <v>102</v>
@@ -2749,10 +2749,10 @@
         <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D121" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E121" t="s">
         <v>103</v>
@@ -2766,13 +2766,13 @@
         <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D122" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E122" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2783,13 +2783,13 @@
         <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D123" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E123" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2800,13 +2800,13 @@
         <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D124" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E124" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2817,13 +2817,13 @@
         <v>7</v>
       </c>
       <c r="C125" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D125" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E125" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2834,13 +2834,13 @@
         <v>7</v>
       </c>
       <c r="C126" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D126" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E126" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2851,10 +2851,10 @@
         <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D127" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E127" t="s">
         <v>98</v>
@@ -2868,10 +2868,10 @@
         <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D128" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E128" t="s">
         <v>99</v>
@@ -2885,10 +2885,10 @@
         <v>7</v>
       </c>
       <c r="C129" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D129" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E129" t="s">
         <v>100</v>
@@ -2902,13 +2902,13 @@
         <v>7</v>
       </c>
       <c r="C130" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D130" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E130" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2919,13 +2919,13 @@
         <v>7</v>
       </c>
       <c r="C131" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D131" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E131" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2936,10 +2936,10 @@
         <v>7</v>
       </c>
       <c r="C132" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D132" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E132" t="s">
         <v>98</v>
@@ -2953,10 +2953,10 @@
         <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D133" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E133" t="s">
         <v>99</v>
@@ -2970,13 +2970,13 @@
         <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D134" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E134" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2987,13 +2987,13 @@
         <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D135" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E135" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3004,13 +3004,13 @@
         <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D136" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E136" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3021,13 +3021,13 @@
         <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D137" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E137" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3038,13 +3038,13 @@
         <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D138" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E138" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3055,13 +3055,13 @@
         <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D139" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E139" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3072,13 +3072,13 @@
         <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D140" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E140" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3089,13 +3089,13 @@
         <v>7</v>
       </c>
       <c r="C141" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D141" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E141" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3106,13 +3106,13 @@
         <v>7</v>
       </c>
       <c r="C142" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D142" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E142" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3123,10 +3123,10 @@
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D143" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E143" t="s">
         <v>98</v>
@@ -3140,10 +3140,10 @@
         <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D144" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E144" t="s">
         <v>98</v>
@@ -3157,10 +3157,10 @@
         <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D145" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E145" t="s">
         <v>99</v>
@@ -3174,10 +3174,10 @@
         <v>7</v>
       </c>
       <c r="C146" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D146" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E146" t="s">
         <v>100</v>
@@ -3191,13 +3191,13 @@
         <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D147" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E147" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3208,13 +3208,13 @@
         <v>7</v>
       </c>
       <c r="C148" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D148" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E148" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3225,13 +3225,13 @@
         <v>7</v>
       </c>
       <c r="C149" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D149" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E149" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3242,13 +3242,13 @@
         <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D150" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E150" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3259,13 +3259,13 @@
         <v>7</v>
       </c>
       <c r="C151" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D151" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E151" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3276,13 +3276,13 @@
         <v>7</v>
       </c>
       <c r="C152" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D152" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E152" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3293,13 +3293,13 @@
         <v>7</v>
       </c>
       <c r="C153" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D153" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E153" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3310,13 +3310,13 @@
         <v>7</v>
       </c>
       <c r="C154" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D154" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E154" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3327,13 +3327,13 @@
         <v>7</v>
       </c>
       <c r="C155" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D155" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E155" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3344,13 +3344,13 @@
         <v>7</v>
       </c>
       <c r="C156" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D156" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E156" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3361,13 +3361,13 @@
         <v>7</v>
       </c>
       <c r="C157" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D157" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E157" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3378,13 +3378,13 @@
         <v>7</v>
       </c>
       <c r="C158" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D158" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E158" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3395,13 +3395,13 @@
         <v>7</v>
       </c>
       <c r="C159" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D159" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E159" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3412,10 +3412,10 @@
         <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D160" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E160" t="s">
         <v>98</v>
@@ -3429,10 +3429,10 @@
         <v>7</v>
       </c>
       <c r="C161" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D161" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E161" t="s">
         <v>99</v>
@@ -3446,10 +3446,10 @@
         <v>7</v>
       </c>
       <c r="C162" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D162" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E162" t="s">
         <v>100</v>
@@ -3463,10 +3463,10 @@
         <v>7</v>
       </c>
       <c r="C163" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D163" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E163" t="s">
         <v>101</v>
@@ -3480,13 +3480,13 @@
         <v>7</v>
       </c>
       <c r="C164" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D164" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E164" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3497,13 +3497,13 @@
         <v>7</v>
       </c>
       <c r="C165" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D165" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E165" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3514,13 +3514,13 @@
         <v>7</v>
       </c>
       <c r="C166" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D166" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E166" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3531,13 +3531,13 @@
         <v>7</v>
       </c>
       <c r="C167" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D167" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E167" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3548,13 +3548,13 @@
         <v>7</v>
       </c>
       <c r="C168" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D168" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E168" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3565,13 +3565,13 @@
         <v>7</v>
       </c>
       <c r="C169" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D169" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E169" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3582,13 +3582,13 @@
         <v>7</v>
       </c>
       <c r="C170" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D170" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E170" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3599,13 +3599,13 @@
         <v>7</v>
       </c>
       <c r="C171" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D171" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E171" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3616,13 +3616,13 @@
         <v>7</v>
       </c>
       <c r="C172" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D172" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E172" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3633,13 +3633,13 @@
         <v>7</v>
       </c>
       <c r="C173" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D173" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E173" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3650,13 +3650,13 @@
         <v>7</v>
       </c>
       <c r="C174" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D174" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E174" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3667,13 +3667,13 @@
         <v>7</v>
       </c>
       <c r="C175" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D175" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E175" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3684,13 +3684,13 @@
         <v>7</v>
       </c>
       <c r="C176" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D176" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E176" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3701,13 +3701,13 @@
         <v>7</v>
       </c>
       <c r="C177" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D177" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E177" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3718,13 +3718,13 @@
         <v>7</v>
       </c>
       <c r="C178" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D178" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E178" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3735,13 +3735,13 @@
         <v>7</v>
       </c>
       <c r="C179" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D179" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E179" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3752,13 +3752,13 @@
         <v>7</v>
       </c>
       <c r="C180" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D180" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E180" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3769,13 +3769,13 @@
         <v>7</v>
       </c>
       <c r="C181" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D181" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E181" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3786,13 +3786,13 @@
         <v>7</v>
       </c>
       <c r="C182" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D182" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E182" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3803,13 +3803,13 @@
         <v>7</v>
       </c>
       <c r="C183" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D183" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E183" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3820,13 +3820,13 @@
         <v>7</v>
       </c>
       <c r="C184" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D184" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E184" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3837,13 +3837,13 @@
         <v>7</v>
       </c>
       <c r="C185" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D185" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E185" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3854,13 +3854,13 @@
         <v>7</v>
       </c>
       <c r="C186" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D186" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E186" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3871,13 +3871,13 @@
         <v>7</v>
       </c>
       <c r="C187" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D187" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E187" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3888,13 +3888,13 @@
         <v>7</v>
       </c>
       <c r="C188" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D188" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E188" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3905,13 +3905,13 @@
         <v>7</v>
       </c>
       <c r="C189" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D189" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E189" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3922,13 +3922,13 @@
         <v>7</v>
       </c>
       <c r="C190" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D190" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E190" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3939,13 +3939,13 @@
         <v>7</v>
       </c>
       <c r="C191" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D191" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E191" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3956,13 +3956,13 @@
         <v>7</v>
       </c>
       <c r="C192" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D192" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E192" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3973,13 +3973,13 @@
         <v>7</v>
       </c>
       <c r="C193" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D193" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E193" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3990,13 +3990,13 @@
         <v>7</v>
       </c>
       <c r="C194" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D194" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E194" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4007,13 +4007,13 @@
         <v>7</v>
       </c>
       <c r="C195" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D195" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E195" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4024,13 +4024,13 @@
         <v>7</v>
       </c>
       <c r="C196" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D196" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E196" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4041,13 +4041,13 @@
         <v>7</v>
       </c>
       <c r="C197" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D197" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E197" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4058,13 +4058,13 @@
         <v>7</v>
       </c>
       <c r="C198" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D198" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E198" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4075,10 +4075,10 @@
         <v>7</v>
       </c>
       <c r="C199" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D199" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E199" t="s">
         <v>98</v>
@@ -4092,10 +4092,10 @@
         <v>7</v>
       </c>
       <c r="C200" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D200" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E200" t="s">
         <v>99</v>
@@ -4109,10 +4109,10 @@
         <v>7</v>
       </c>
       <c r="C201" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D201" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E201" t="s">
         <v>100</v>
@@ -4126,10 +4126,10 @@
         <v>7</v>
       </c>
       <c r="C202" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D202" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E202" t="s">
         <v>101</v>
@@ -4143,10 +4143,10 @@
         <v>7</v>
       </c>
       <c r="C203" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D203" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E203" t="s">
         <v>102</v>
@@ -4160,10 +4160,10 @@
         <v>7</v>
       </c>
       <c r="C204" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D204" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E204" t="s">
         <v>103</v>
@@ -4177,13 +4177,13 @@
         <v>7</v>
       </c>
       <c r="C205" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D205" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E205" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -4194,13 +4194,13 @@
         <v>7</v>
       </c>
       <c r="C206" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D206" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E206" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4211,13 +4211,13 @@
         <v>7</v>
       </c>
       <c r="C207" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D207" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E207" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -4228,13 +4228,13 @@
         <v>7</v>
       </c>
       <c r="C208" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D208" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E208" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4245,13 +4245,13 @@
         <v>7</v>
       </c>
       <c r="C209" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D209" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E209" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4262,13 +4262,540 @@
         <v>7</v>
       </c>
       <c r="C210" t="s">
+        <v>46</v>
+      </c>
+      <c r="D210" t="s">
+        <v>91</v>
+      </c>
+      <c r="E210" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" t="s">
+        <v>6</v>
+      </c>
+      <c r="B211" t="s">
+        <v>7</v>
+      </c>
+      <c r="C211" t="s">
+        <v>46</v>
+      </c>
+      <c r="D211" t="s">
+        <v>91</v>
+      </c>
+      <c r="E211" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" t="s">
+        <v>6</v>
+      </c>
+      <c r="B212" t="s">
+        <v>7</v>
+      </c>
+      <c r="C212" t="s">
+        <v>46</v>
+      </c>
+      <c r="D212" t="s">
+        <v>91</v>
+      </c>
+      <c r="E212" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" t="s">
+        <v>6</v>
+      </c>
+      <c r="B213" t="s">
+        <v>7</v>
+      </c>
+      <c r="C213" t="s">
+        <v>47</v>
+      </c>
+      <c r="D213" t="s">
+        <v>92</v>
+      </c>
+      <c r="E213" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" t="s">
+        <v>6</v>
+      </c>
+      <c r="B214" t="s">
+        <v>7</v>
+      </c>
+      <c r="C214" t="s">
+        <v>47</v>
+      </c>
+      <c r="D214" t="s">
+        <v>92</v>
+      </c>
+      <c r="E214" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" t="s">
+        <v>6</v>
+      </c>
+      <c r="B215" t="s">
+        <v>7</v>
+      </c>
+      <c r="C215" t="s">
+        <v>47</v>
+      </c>
+      <c r="D215" t="s">
+        <v>92</v>
+      </c>
+      <c r="E215" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" t="s">
+        <v>6</v>
+      </c>
+      <c r="B216" t="s">
+        <v>7</v>
+      </c>
+      <c r="C216" t="s">
+        <v>47</v>
+      </c>
+      <c r="D216" t="s">
+        <v>92</v>
+      </c>
+      <c r="E216" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" t="s">
+        <v>6</v>
+      </c>
+      <c r="B217" t="s">
+        <v>7</v>
+      </c>
+      <c r="C217" t="s">
+        <v>47</v>
+      </c>
+      <c r="D217" t="s">
+        <v>92</v>
+      </c>
+      <c r="E217" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" t="s">
+        <v>6</v>
+      </c>
+      <c r="B218" t="s">
+        <v>7</v>
+      </c>
+      <c r="C218" t="s">
+        <v>47</v>
+      </c>
+      <c r="D218" t="s">
+        <v>92</v>
+      </c>
+      <c r="E218" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" t="s">
+        <v>6</v>
+      </c>
+      <c r="B219" t="s">
+        <v>7</v>
+      </c>
+      <c r="C219" t="s">
+        <v>48</v>
+      </c>
+      <c r="D219" t="s">
+        <v>93</v>
+      </c>
+      <c r="E219" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" t="s">
+        <v>6</v>
+      </c>
+      <c r="B220" t="s">
+        <v>7</v>
+      </c>
+      <c r="C220" t="s">
+        <v>48</v>
+      </c>
+      <c r="D220" t="s">
+        <v>93</v>
+      </c>
+      <c r="E220" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" t="s">
+        <v>6</v>
+      </c>
+      <c r="B221" t="s">
+        <v>7</v>
+      </c>
+      <c r="C221" t="s">
+        <v>48</v>
+      </c>
+      <c r="D221" t="s">
+        <v>93</v>
+      </c>
+      <c r="E221" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" t="s">
+        <v>6</v>
+      </c>
+      <c r="B222" t="s">
+        <v>7</v>
+      </c>
+      <c r="C222" t="s">
+        <v>48</v>
+      </c>
+      <c r="D222" t="s">
+        <v>93</v>
+      </c>
+      <c r="E222" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" t="s">
+        <v>6</v>
+      </c>
+      <c r="B223" t="s">
+        <v>7</v>
+      </c>
+      <c r="C223" t="s">
+        <v>48</v>
+      </c>
+      <c r="D223" t="s">
+        <v>93</v>
+      </c>
+      <c r="E223" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" t="s">
+        <v>6</v>
+      </c>
+      <c r="B224" t="s">
+        <v>7</v>
+      </c>
+      <c r="C224" t="s">
+        <v>48</v>
+      </c>
+      <c r="D224" t="s">
+        <v>93</v>
+      </c>
+      <c r="E224" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" t="s">
+        <v>6</v>
+      </c>
+      <c r="B225" t="s">
+        <v>7</v>
+      </c>
+      <c r="C225" t="s">
+        <v>49</v>
+      </c>
+      <c r="D225" t="s">
+        <v>94</v>
+      </c>
+      <c r="E225" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" t="s">
+        <v>6</v>
+      </c>
+      <c r="B226" t="s">
+        <v>7</v>
+      </c>
+      <c r="C226" t="s">
+        <v>49</v>
+      </c>
+      <c r="D226" t="s">
+        <v>94</v>
+      </c>
+      <c r="E226" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" t="s">
+        <v>6</v>
+      </c>
+      <c r="B227" t="s">
+        <v>7</v>
+      </c>
+      <c r="C227" t="s">
+        <v>49</v>
+      </c>
+      <c r="D227" t="s">
+        <v>94</v>
+      </c>
+      <c r="E227" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" t="s">
+        <v>6</v>
+      </c>
+      <c r="B228" t="s">
+        <v>7</v>
+      </c>
+      <c r="C228" t="s">
+        <v>49</v>
+      </c>
+      <c r="D228" t="s">
+        <v>94</v>
+      </c>
+      <c r="E228" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" t="s">
+        <v>6</v>
+      </c>
+      <c r="B229" t="s">
+        <v>7</v>
+      </c>
+      <c r="C229" t="s">
+        <v>49</v>
+      </c>
+      <c r="D229" t="s">
+        <v>94</v>
+      </c>
+      <c r="E229" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" t="s">
+        <v>6</v>
+      </c>
+      <c r="B230" t="s">
+        <v>7</v>
+      </c>
+      <c r="C230" t="s">
+        <v>49</v>
+      </c>
+      <c r="D230" t="s">
+        <v>94</v>
+      </c>
+      <c r="E230" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" t="s">
+        <v>6</v>
+      </c>
+      <c r="B231" t="s">
+        <v>7</v>
+      </c>
+      <c r="C231" t="s">
+        <v>49</v>
+      </c>
+      <c r="D231" t="s">
+        <v>94</v>
+      </c>
+      <c r="E231" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" t="s">
+        <v>6</v>
+      </c>
+      <c r="B232" t="s">
+        <v>7</v>
+      </c>
+      <c r="C232" t="s">
+        <v>49</v>
+      </c>
+      <c r="D232" t="s">
+        <v>94</v>
+      </c>
+      <c r="E232" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" t="s">
+        <v>6</v>
+      </c>
+      <c r="B233" t="s">
+        <v>7</v>
+      </c>
+      <c r="C233" t="s">
+        <v>50</v>
+      </c>
+      <c r="D233" t="s">
+        <v>95</v>
+      </c>
+      <c r="E233" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" t="s">
+        <v>6</v>
+      </c>
+      <c r="B234" t="s">
+        <v>7</v>
+      </c>
+      <c r="C234" t="s">
+        <v>51</v>
+      </c>
+      <c r="D234" t="s">
+        <v>96</v>
+      </c>
+      <c r="E234" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" t="s">
+        <v>6</v>
+      </c>
+      <c r="B235" t="s">
+        <v>7</v>
+      </c>
+      <c r="C235" t="s">
+        <v>51</v>
+      </c>
+      <c r="D235" t="s">
+        <v>96</v>
+      </c>
+      <c r="E235" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" t="s">
+        <v>6</v>
+      </c>
+      <c r="B236" t="s">
+        <v>7</v>
+      </c>
+      <c r="C236" t="s">
+        <v>51</v>
+      </c>
+      <c r="D236" t="s">
+        <v>96</v>
+      </c>
+      <c r="E236" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" t="s">
+        <v>6</v>
+      </c>
+      <c r="B237" t="s">
+        <v>7</v>
+      </c>
+      <c r="C237" t="s">
+        <v>51</v>
+      </c>
+      <c r="D237" t="s">
+        <v>96</v>
+      </c>
+      <c r="E237" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" t="s">
+        <v>6</v>
+      </c>
+      <c r="B238" t="s">
+        <v>7</v>
+      </c>
+      <c r="C238" t="s">
         <v>52</v>
       </c>
-      <c r="D210" t="s">
+      <c r="D238" t="s">
         <v>97</v>
       </c>
-      <c r="E210" t="s">
-        <v>103</v>
+      <c r="E238" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" t="s">
+        <v>6</v>
+      </c>
+      <c r="B239" t="s">
+        <v>7</v>
+      </c>
+      <c r="C239" t="s">
+        <v>52</v>
+      </c>
+      <c r="D239" t="s">
+        <v>97</v>
+      </c>
+      <c r="E239" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" t="s">
+        <v>6</v>
+      </c>
+      <c r="B240" t="s">
+        <v>7</v>
+      </c>
+      <c r="C240" t="s">
+        <v>52</v>
+      </c>
+      <c r="D240" t="s">
+        <v>97</v>
+      </c>
+      <c r="E240" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" t="s">
+        <v>6</v>
+      </c>
+      <c r="B241" t="s">
+        <v>7</v>
+      </c>
+      <c r="C241" t="s">
+        <v>52</v>
+      </c>
+      <c r="D241" t="s">
+        <v>97</v>
+      </c>
+      <c r="E241" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
